--- a/MATLAB Codes/Goal/GoalResults.xlsx
+++ b/MATLAB Codes/Goal/GoalResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilmar Jeronimo\Desktop\Testes MATLAB\MATLAB Codes\Goal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilmar Jeronimo\Documents\Documentos\Projetos\GitHub\LAB GIT\OpenNNCV\MATLAB Codes\Goal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F0567-CB3B-4E1B-81F8-771454EEBC13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A4EA80-2699-4C0D-871F-AED60BE16A86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{791884E5-62DD-4D96-B9E2-DFC9E84D4A48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{791884E5-62DD-4D96-B9E2-DFC9E84D4A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE6F51-6CD3-4002-90BB-394698E69EFC}">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2995,7 +2995,7 @@
         <v>1.482499999999991</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BJ17" si="1">SUM(E3,F3)</f>
         <v>1.579999999999989</v>
       </c>
       <c r="F17">
@@ -3236,7 +3236,7 @@
         <v>0.7580737704917978</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BJ22" si="3">SUM(C4,D4)</f>
         <v>1.642499999999987</v>
       </c>
       <c r="D18">
@@ -4292,7 +4292,7 @@
         <v>1.619999999999987</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:CC22" si="4">SUM(R8,S8)</f>
+        <f t="shared" ref="R22:BJ22" si="4">SUM(R8,S8)</f>
         <v>1.6149999999999869</v>
       </c>
       <c r="S22">
@@ -4481,7 +4481,7 @@
         <v>0.78038934426228934</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BJ27" si="5">SUM(C9,D9)</f>
         <v>1.6924999999999861</v>
       </c>
       <c r="D23">
@@ -5537,7 +5537,7 @@
         <v>1.6224999999999872</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:CC27" si="6">SUM(R13,S13)</f>
+        <f t="shared" ref="R27:BJ27" si="6">SUM(R13,S13)</f>
         <v>1.6374999999999869</v>
       </c>
       <c r="S27">
@@ -5726,7 +5726,7 @@
         <v>0.80399590163933787</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BJ28" si="7">SUM(C14,D14)</f>
         <v>1.707499999999986</v>
       </c>
       <c r="D28">
@@ -6019,12 +6019,62 @@
         <v>1.6123155737704791</v>
       </c>
     </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.711946721311471)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.758073770491798)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.775881147540978)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.780184426229502)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.795860655737699)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.788442622950814)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.780389344262289)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.800922131147534)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.804795081967207)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.813032786885239)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.808319672131141)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.803995901639338)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6032,10 +6082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA140F6-1723-41D6-B79F-2B74A5310FAB}">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD30"/>
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8562,7 +8612,7 @@
         <v>1.49999999999999</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BJ17" si="1">SUM(E3,F3)</f>
         <v>1.582499999999988</v>
       </c>
       <c r="F17">
@@ -8803,7 +8853,7 @@
         <v>0.75135245901638825</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BJ22" si="3">SUM(C4,D4)</f>
         <v>1.6074999999999871</v>
       </c>
       <c r="D18">
@@ -9859,7 +9909,7 @@
         <v>1.6349999999999869</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:CC22" si="4">SUM(R8,S8)</f>
+        <f t="shared" ref="R22:BJ22" si="4">SUM(R8,S8)</f>
         <v>1.632499999999987</v>
       </c>
       <c r="S22">
@@ -10048,7 +10098,7 @@
         <v>0.78793032786884665</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BJ27" si="5">SUM(C9,D9)</f>
         <v>1.6724999999999861</v>
       </c>
       <c r="D23">
@@ -11104,7 +11154,7 @@
         <v>1.6174999999999879</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:CC27" si="6">SUM(R13,S13)</f>
+        <f t="shared" ref="R27:BJ27" si="6">SUM(R13,S13)</f>
         <v>1.662499999999987</v>
       </c>
       <c r="S27">
@@ -11293,7 +11343,7 @@
         <v>0.81184426229507545</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BJ28" si="7">SUM(C14,D14)</f>
         <v>1.744999999999985</v>
       </c>
       <c r="D28">
@@ -11586,12 +11636,62 @@
         <v>1.612049180327856</v>
       </c>
     </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.713258196721307)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.751352459016388)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.760655737704913)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.772540983606552)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.781987704918027)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.798586065573764)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.787930327868847)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.794938524590158)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.798401639344256)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.806331967213109)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.800204918032781)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.811844262295075)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -11599,10 +11699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E96817-6CCA-415B-AFB3-89D89E04A846}">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD30"/>
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14129,7 +14229,7 @@
         <v>1.2249999999999961</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BJ17" si="1">SUM(E3,F3)</f>
         <v>0.86749999999999805</v>
       </c>
       <c r="F17">
@@ -14370,7 +14470,7 @@
         <v>0.67659836065573387</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BJ22" si="3">SUM(C4,D4)</f>
         <v>1.5849999999999889</v>
       </c>
       <c r="D18">
@@ -15426,7 +15526,7 @@
         <v>1.5524999999999891</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:CC22" si="4">SUM(R8,S8)</f>
+        <f t="shared" ref="R22:BJ22" si="4">SUM(R8,S8)</f>
         <v>1.474999999999991</v>
       </c>
       <c r="S22">
@@ -15615,7 +15715,7 @@
         <v>0.75106557377048655</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BJ27" si="5">SUM(C9,D9)</f>
         <v>1.6374999999999871</v>
       </c>
       <c r="D23">
@@ -16671,7 +16771,7 @@
         <v>1.5399999999999889</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:CC27" si="6">SUM(R13,S13)</f>
+        <f t="shared" ref="R27:BJ27" si="6">SUM(R13,S13)</f>
         <v>1.4949999999999899</v>
       </c>
       <c r="S27">
@@ -16860,7 +16960,7 @@
         <v>0.75256147540983054</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BJ28" si="7">SUM(C14,D14)</f>
         <v>1.6824999999999859</v>
       </c>
       <c r="D28">
@@ -17153,9 +17253,59 @@
         <v>1.4948975409835956</v>
       </c>
     </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.599795081967211)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.676598360655734)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.717540983606553)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.736577868852454)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.719959016393438)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.726249999999995)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.751065573770487)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.758811475409831)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.759180327868847)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.753032786885241)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.742336065573765)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.752561475409831)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="5" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
     <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
@@ -17166,10 +17316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F3C9C-40D6-4237-84DF-7ED689EDBE53}">
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19696,7 +19846,7 @@
         <v>1.442499999999991</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:BP17" si="1">SUM(E3,F3)</f>
+        <f t="shared" ref="E17:BJ17" si="1">SUM(E3,F3)</f>
         <v>1.48999999999999</v>
       </c>
       <c r="F17">
@@ -19937,7 +20087,7 @@
         <v>0.57540983606557183</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN22" si="3">SUM(C4,D4)</f>
+        <f t="shared" ref="C18:BJ22" si="3">SUM(C4,D4)</f>
         <v>1.4574999999999911</v>
       </c>
       <c r="D18">
@@ -20961,7 +21111,7 @@
         <v>1.2524999999999959</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:BU22" si="4">SUM(J8,K8)</f>
+        <f t="shared" ref="J22:BJ22" si="4">SUM(J8,K8)</f>
         <v>1.1999999999999971</v>
       </c>
       <c r="K22">
@@ -21182,7 +21332,7 @@
         <v>0.6163729508196697</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:BN27" si="5">SUM(C9,D9)</f>
+        <f t="shared" ref="C23:BJ27" si="5">SUM(C9,D9)</f>
         <v>1.4024999999999919</v>
       </c>
       <c r="D23">
@@ -22206,7 +22356,7 @@
         <v>1.227499999999996</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:BU27" si="6">SUM(J13,K13)</f>
+        <f t="shared" ref="J27:BJ27" si="6">SUM(J13,K13)</f>
         <v>1.2249999999999961</v>
       </c>
       <c r="K27">
@@ -22427,7 +22577,7 @@
         <v>0.63034836065573507</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:BN28" si="7">SUM(C14,D14)</f>
+        <f t="shared" ref="C28:BJ28" si="7">SUM(C14,D14)</f>
         <v>1.3649999999999931</v>
       </c>
       <c r="D28">
@@ -22720,12 +22870,62 @@
         <v>1.2396311475409787</v>
       </c>
     </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("(",A17,",",B17,")")</f>
+        <v>(1,0.580061475409834)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",A18,",",B18,")")</f>
+        <v>(2,0.575409836065572)</v>
+      </c>
+      <c r="D32" t="str">
+        <f>_xlfn.CONCAT("(",A19,",",B19,")")</f>
+        <v>(3,0.588340163934424)</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT("(",A20,",",B20,")")</f>
+        <v>(4,0.606762295081965)</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.CONCAT("(",A21,",",B21,")")</f>
+        <v>(5,0.614610655737703)</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A22,",",B22,")")</f>
+        <v>(6,0.613196721311473)</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT("(",A23,",",B23,")")</f>
+        <v>(7,0.61637295081967)</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("(",A24,",",B24,")")</f>
+        <v>(8,0.618504098360653)</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A25,",",B25,")")</f>
+        <v>(9,0.62948770491803)</v>
+      </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("(",A26,",",B26,")")</f>
+        <v>(10,0.613483606557374)</v>
+      </c>
+      <c r="L32" t="str">
+        <f>_xlfn.CONCAT("(",A27,",",B27,")")</f>
+        <v>(11,0.609282786885244)</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT("(",A28,",",B28,")")</f>
+        <v>(12,0.630348360655735)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B14">
-    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B28">
-    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
